--- a/data/blank.xlsx
+++ b/data/blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walki\Desktop\multi-age\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172CFDD-638C-4E1F-85AC-ADB144A72FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C385D31-DAAB-47E0-8BE3-9CE5C26C5BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="195" windowWidth="19290" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="630" windowWidth="18210" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>#site_data</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>decay</t>
+  </si>
+  <si>
+    <t>jf</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1014,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,9 +1126,23 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
       <c r="G6">
         <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1121,9 +1150,23 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
       <c r="G7">
         <v>5</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1131,9 +1174,23 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
       <c r="G8">
         <v>5</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1141,9 +1198,23 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
       <c r="G9">
         <v>5</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1151,9 +1222,23 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>315</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
       <c r="G10">
         <v>5</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1161,9 +1246,23 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
       <c r="G11">
         <v>5</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1171,9 +1270,23 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
       <c r="G12">
         <v>5</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1181,9 +1294,23 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
       <c r="G13">
         <v>5</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1206,22 +1333,22 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1274,40 +1401,40 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="L25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
+      <c r="M25" t="s">
         <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1360,17 +1487,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
         <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,15 +1587,15 @@
       <formula1>0</formula1>
       <formula2>300</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E23 G16:H23 J16:J23 B26:C33 E26:F33 H26:I33 K26:L33" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J23 G17:H23 H15:H16 E17:E23 E27:F33 B27:C33 K25:L33 H25:I33" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F23 I16:I23" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I23 F17:F23" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D33 G26:G33 J26:J33 M26:M33" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27:G33 D27:D33 M25:M33 J25:J33" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
